--- a/fred/bryggeskjema.xlsx
+++ b/fred/bryggeskjema.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Bryggedato</t>
   </si>
@@ -133,10 +133,16 @@
     <t>Totalt</t>
   </si>
   <si>
-    <t>Mesk i 45 min på 67 grader C</t>
-  </si>
-  <si>
-    <t>Utmesk på 77 grader C</t>
+    <t>Notater</t>
+  </si>
+  <si>
+    <t>Pitch gjæren på 20 grader, og la friheva til 22-23 grader</t>
+  </si>
+  <si>
+    <t>Utmesk på 77 grader</t>
+  </si>
+  <si>
+    <t>Mesk i 45 min på 67 grader</t>
   </si>
 </sst>
 </file>
@@ -183,12 +189,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +514,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -516,18 +522,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -535,12 +541,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -548,7 +554,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -559,7 +565,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -570,12 +576,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -583,12 +589,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11">
@@ -596,12 +602,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13">
@@ -609,26 +615,26 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -689,24 +695,24 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -753,21 +759,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
@@ -775,7 +781,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -803,13 +809,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
     </row>

--- a/fred/bryggeskjema.xlsx
+++ b/fred/bryggeskjema.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,6 +288,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -323,6 +340,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,11 +535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
